--- a/Code/Results/Cases/Case_3_226/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_226/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.013316728512661</v>
+        <v>1.037494470852308</v>
       </c>
       <c r="D2">
-        <v>1.033016180631819</v>
+        <v>1.046758875721007</v>
       </c>
       <c r="E2">
-        <v>1.017899912737657</v>
+        <v>1.036277335339771</v>
       </c>
       <c r="F2">
-        <v>1.033953363415799</v>
+        <v>1.055552244180352</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052391673149513</v>
+        <v>1.042222328563286</v>
       </c>
       <c r="J2">
-        <v>1.035106305149067</v>
+        <v>1.0425970358803</v>
       </c>
       <c r="K2">
-        <v>1.044033940004523</v>
+        <v>1.049523413466975</v>
       </c>
       <c r="L2">
-        <v>1.029115381078253</v>
+        <v>1.039071536915578</v>
       </c>
       <c r="M2">
-        <v>1.044959103094538</v>
+        <v>1.058292388311089</v>
       </c>
       <c r="N2">
-        <v>1.036576274830732</v>
+        <v>1.044077643258801</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C3">
-        <v>1.017652742245729</v>
+        <v>1.038402555501242</v>
       </c>
       <c r="D3">
-        <v>1.036545900529313</v>
+        <v>1.047520277088291</v>
       </c>
       <c r="E3">
-        <v>1.0213628922116</v>
+        <v>1.037048448028472</v>
       </c>
       <c r="F3">
-        <v>1.038390258403266</v>
+        <v>1.056545920864358</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053983348570069</v>
+        <v>1.042491551297867</v>
       </c>
       <c r="J3">
-        <v>1.037673476174862</v>
+        <v>1.043149731014273</v>
       </c>
       <c r="K3">
-        <v>1.046731585813309</v>
+        <v>1.050096652754297</v>
       </c>
       <c r="L3">
-        <v>1.031729537126534</v>
+        <v>1.039652319972062</v>
       </c>
       <c r="M3">
-        <v>1.048554407439526</v>
+        <v>1.059099069303024</v>
       </c>
       <c r="N3">
-        <v>1.039147091533841</v>
+        <v>1.04463112328326</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.020402349482491</v>
+        <v>1.038990546374506</v>
       </c>
       <c r="D4">
-        <v>1.038786312692348</v>
+        <v>1.048013261285008</v>
       </c>
       <c r="E4">
-        <v>1.023564525083995</v>
+        <v>1.037548121978535</v>
       </c>
       <c r="F4">
-        <v>1.041208828935216</v>
+        <v>1.057189728289448</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054982363405554</v>
+        <v>1.042664607748462</v>
       </c>
       <c r="J4">
-        <v>1.039298177861544</v>
+        <v>1.0435071245227</v>
       </c>
       <c r="K4">
-        <v>1.048438116240674</v>
+        <v>1.050467220535403</v>
       </c>
       <c r="L4">
-        <v>1.033386628429997</v>
+        <v>1.040028177928662</v>
       </c>
       <c r="M4">
-        <v>1.050834093637379</v>
+        <v>1.059621261534691</v>
       </c>
       <c r="N4">
-        <v>1.040774100483274</v>
+        <v>1.044989024331462</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.021545314945635</v>
+        <v>1.039237832267341</v>
       </c>
       <c r="D5">
-        <v>1.039718079225903</v>
+        <v>1.048220583886963</v>
       </c>
       <c r="E5">
-        <v>1.024481022413775</v>
+        <v>1.037758354068949</v>
       </c>
       <c r="F5">
-        <v>1.042381638831707</v>
+        <v>1.057460582842157</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055395125759495</v>
+        <v>1.042737085070832</v>
       </c>
       <c r="J5">
-        <v>1.039972735857626</v>
+        <v>1.043657315004896</v>
       </c>
       <c r="K5">
-        <v>1.049146465679036</v>
+        <v>1.050622920889353</v>
       </c>
       <c r="L5">
-        <v>1.034075270490384</v>
+        <v>1.04018620012095</v>
       </c>
       <c r="M5">
-        <v>1.051781640906175</v>
+        <v>1.059840841598431</v>
       </c>
       <c r="N5">
-        <v>1.041449616429084</v>
+        <v>1.045139428101371</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.021736476225215</v>
+        <v>1.039279358168711</v>
       </c>
       <c r="D6">
-        <v>1.039873943633264</v>
+        <v>1.048255398449506</v>
       </c>
       <c r="E6">
-        <v>1.024634383070267</v>
+        <v>1.037793662840818</v>
       </c>
       <c r="F6">
-        <v>1.042577860257675</v>
+        <v>1.057506072080936</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055464011726412</v>
+        <v>1.042749238152383</v>
       </c>
       <c r="J6">
-        <v>1.040085507808814</v>
+        <v>1.043682529233357</v>
       </c>
       <c r="K6">
-        <v>1.049264875979248</v>
+        <v>1.050649058571008</v>
       </c>
       <c r="L6">
-        <v>1.034190434400471</v>
+        <v>1.040212733386432</v>
       </c>
       <c r="M6">
-        <v>1.051940112922595</v>
+        <v>1.059877712981264</v>
       </c>
       <c r="N6">
-        <v>1.041562548529378</v>
+        <v>1.045164678136928</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.020417672214157</v>
+        <v>1.03899385025062</v>
       </c>
       <c r="D7">
-        <v>1.038798802280685</v>
+        <v>1.048016031258371</v>
       </c>
       <c r="E7">
-        <v>1.023576806610431</v>
+        <v>1.037550930447093</v>
       </c>
       <c r="F7">
-        <v>1.041224547139331</v>
+        <v>1.05719334668522</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054987906913088</v>
+        <v>1.042665577277716</v>
       </c>
       <c r="J7">
-        <v>1.0393072242774</v>
+        <v>1.043509131603391</v>
       </c>
       <c r="K7">
-        <v>1.048447616557715</v>
+        <v>1.050469301351699</v>
       </c>
       <c r="L7">
-        <v>1.033395861211524</v>
+        <v>1.040030289385039</v>
       </c>
       <c r="M7">
-        <v>1.050846796922354</v>
+        <v>1.059624195377501</v>
       </c>
       <c r="N7">
-        <v>1.040783159746079</v>
+        <v>1.044991034262438</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.014793999477575</v>
+        <v>1.03780127896366</v>
       </c>
       <c r="D8">
-        <v>1.034218283732758</v>
+        <v>1.047016130580299</v>
       </c>
       <c r="E8">
-        <v>1.019078535084518</v>
+        <v>1.036537788114472</v>
       </c>
       <c r="F8">
-        <v>1.035463945513318</v>
+        <v>1.055887888773962</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052936094886406</v>
+        <v>1.042313551113007</v>
       </c>
       <c r="J8">
-        <v>1.035981592925363</v>
+        <v>1.042783870323763</v>
       </c>
       <c r="K8">
-        <v>1.044953867756616</v>
+        <v>1.049717215539731</v>
       </c>
       <c r="L8">
-        <v>1.030006131057427</v>
+        <v>1.039267803766078</v>
       </c>
       <c r="M8">
-        <v>1.046184042685871</v>
+        <v>1.058564964555397</v>
       </c>
       <c r="N8">
-        <v>1.037452805616066</v>
+        <v>1.044264743028604</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.004433130433316</v>
+        <v>1.035702922634822</v>
       </c>
       <c r="D9">
-        <v>1.025797916935634</v>
+        <v>1.045256585788239</v>
       </c>
       <c r="E9">
-        <v>1.010837862884788</v>
+        <v>1.034758020700707</v>
       </c>
       <c r="F9">
-        <v>1.024891494522195</v>
+        <v>1.053593936418218</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049075505909912</v>
+        <v>1.041684465945159</v>
       </c>
       <c r="J9">
-        <v>1.029830308834565</v>
+        <v>1.041504093079754</v>
       </c>
       <c r="K9">
-        <v>1.03848586146927</v>
+        <v>1.048389260151612</v>
       </c>
       <c r="L9">
-        <v>1.02375751693658</v>
+        <v>1.037924655304531</v>
       </c>
       <c r="M9">
-        <v>1.037593232764098</v>
+        <v>1.056700168824138</v>
       </c>
       <c r="N9">
-        <v>1.031292785996297</v>
+        <v>1.042983148354117</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.997190248523902</v>
+        <v>1.034306170526931</v>
       </c>
       <c r="D10">
-        <v>1.019927008434308</v>
+        <v>1.044085254813632</v>
       </c>
       <c r="E10">
-        <v>1.005111651622224</v>
+        <v>1.033575302830212</v>
       </c>
       <c r="F10">
-        <v>1.017529772218344</v>
+        <v>1.052069035882431</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046324646615331</v>
+        <v>1.041259215647181</v>
       </c>
       <c r="J10">
-        <v>1.025515790025022</v>
+        <v>1.040649772000852</v>
       </c>
       <c r="K10">
-        <v>1.033945560127755</v>
+        <v>1.047502212285586</v>
       </c>
       <c r="L10">
-        <v>1.019389222905478</v>
+        <v>1.037029586989564</v>
       </c>
       <c r="M10">
-        <v>1.031589573675279</v>
+        <v>1.055458187297249</v>
       </c>
       <c r="N10">
-        <v>1.026972140075163</v>
+        <v>1.042127614041291</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9939666006261304</v>
+        <v>1.033701884887305</v>
       </c>
       <c r="D11">
-        <v>1.017318328478695</v>
+        <v>1.043578475158091</v>
       </c>
       <c r="E11">
-        <v>1.002571906157935</v>
+        <v>1.033064090142856</v>
       </c>
       <c r="F11">
-        <v>1.014260494596419</v>
+        <v>1.051409796887199</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045088488531714</v>
+        <v>1.041073695109829</v>
       </c>
       <c r="J11">
-        <v>1.023592548069149</v>
+        <v>1.040279583769193</v>
       </c>
       <c r="K11">
-        <v>1.031920873379758</v>
+        <v>1.047117709553464</v>
       </c>
       <c r="L11">
-        <v>1.017445482538297</v>
+        <v>1.036642111837443</v>
       </c>
       <c r="M11">
-        <v>1.028918398215104</v>
+        <v>1.054920698329651</v>
       </c>
       <c r="N11">
-        <v>1.025046166895114</v>
+        <v>1.041756900099882</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9927553426405777</v>
+        <v>1.033477505003721</v>
       </c>
       <c r="D12">
-        <v>1.016338850301891</v>
+        <v>1.043390298200932</v>
       </c>
       <c r="E12">
-        <v>1.001619011290755</v>
+        <v>1.032874341386426</v>
       </c>
       <c r="F12">
-        <v>1.013033216334974</v>
+        <v>1.051165085617068</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044622286131594</v>
+        <v>1.041004577107037</v>
       </c>
       <c r="J12">
-        <v>1.0228695058817</v>
+        <v>1.040142040993942</v>
       </c>
       <c r="K12">
-        <v>1.031159578376756</v>
+        <v>1.046974828222714</v>
       </c>
       <c r="L12">
-        <v>1.016715259193265</v>
+        <v>1.036498201658776</v>
       </c>
       <c r="M12">
-        <v>1.027914908909961</v>
+        <v>1.054721096774097</v>
       </c>
       <c r="N12">
-        <v>1.024322097904824</v>
+        <v>1.041619161998113</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9930158004438918</v>
+        <v>1.033525631672601</v>
       </c>
       <c r="D13">
-        <v>1.016549435187735</v>
+        <v>1.043430659899187</v>
       </c>
       <c r="E13">
-        <v>1.001823849128867</v>
+        <v>1.032915036853773</v>
       </c>
       <c r="F13">
-        <v>1.013297067616814</v>
+        <v>1.051217569779964</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044722611241852</v>
+        <v>1.041019412530077</v>
       </c>
       <c r="J13">
-        <v>1.023024999646863</v>
+        <v>1.040171546108375</v>
       </c>
       <c r="K13">
-        <v>1.031323303687643</v>
+        <v>1.047005479447962</v>
       </c>
       <c r="L13">
-        <v>1.016872273511733</v>
+        <v>1.036529070169799</v>
       </c>
       <c r="M13">
-        <v>1.028130681101818</v>
+        <v>1.054763909895684</v>
       </c>
       <c r="N13">
-        <v>1.024477812488969</v>
+        <v>1.041648709013193</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.993866764545949</v>
+        <v>1.033683335964701</v>
       </c>
       <c r="D14">
-        <v>1.017237581687316</v>
+        <v>1.043562919087673</v>
       </c>
       <c r="E14">
-        <v>1.002493336592292</v>
+        <v>1.033048402620176</v>
       </c>
       <c r="F14">
-        <v>1.014159315008335</v>
+        <v>1.05138956571743</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045050097328619</v>
+        <v>1.041067986022062</v>
       </c>
       <c r="J14">
-        <v>1.023532960321416</v>
+        <v>1.040268215218202</v>
       </c>
       <c r="K14">
-        <v>1.03185813541826</v>
+        <v>1.047105900154318</v>
       </c>
       <c r="L14">
-        <v>1.017385292277111</v>
+        <v>1.036630215858231</v>
       </c>
       <c r="M14">
-        <v>1.028835683193468</v>
+        <v>1.054904198262424</v>
       </c>
       <c r="N14">
-        <v>1.024986494525945</v>
+        <v>1.041745515404244</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9943892138946848</v>
+        <v>1.033780513243609</v>
       </c>
       <c r="D15">
-        <v>1.017660164765246</v>
+        <v>1.043644416801934</v>
       </c>
       <c r="E15">
-        <v>1.002904553888411</v>
+        <v>1.03313059205094</v>
       </c>
       <c r="F15">
-        <v>1.014688841081272</v>
+        <v>1.051495559256401</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045250931145882</v>
+        <v>1.041097886286153</v>
       </c>
       <c r="J15">
-        <v>1.023844771192515</v>
+        <v>1.040327771188444</v>
       </c>
       <c r="K15">
-        <v>1.032186426092979</v>
+        <v>1.047167764758142</v>
       </c>
       <c r="L15">
-        <v>1.017700277408999</v>
+        <v>1.036692537119069</v>
       </c>
       <c r="M15">
-        <v>1.02926854449783</v>
+        <v>1.054990640655043</v>
       </c>
       <c r="N15">
-        <v>1.025298748204245</v>
+        <v>1.041805155950795</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9974022893212388</v>
+        <v>1.034346285957526</v>
       </c>
       <c r="D16">
-        <v>1.02009869397619</v>
+        <v>1.04411889695317</v>
       </c>
       <c r="E16">
-        <v>1.005278897403432</v>
+        <v>1.033609249664844</v>
       </c>
       <c r="F16">
-        <v>1.017744968526745</v>
+        <v>1.052112809695006</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046405714841008</v>
+        <v>1.041271498916002</v>
       </c>
       <c r="J16">
-        <v>1.025642236594438</v>
+        <v>1.040674334741686</v>
       </c>
       <c r="K16">
-        <v>1.034078660143902</v>
+        <v>1.047527722012559</v>
       </c>
       <c r="L16">
-        <v>1.019517089783434</v>
+        <v>1.037055304535131</v>
       </c>
       <c r="M16">
-        <v>1.031765297503751</v>
+        <v>1.055493865027965</v>
       </c>
       <c r="N16">
-        <v>1.027098766213211</v>
+        <v>1.042152211664034</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.999268413586943</v>
+        <v>1.034701319417554</v>
       </c>
       <c r="D17">
-        <v>1.021610160868513</v>
+        <v>1.044416637687329</v>
       </c>
       <c r="E17">
-        <v>1.006751807131805</v>
+        <v>1.033909744075416</v>
       </c>
       <c r="F17">
-        <v>1.019639694630744</v>
+        <v>1.052500277382858</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047117839281924</v>
+        <v>1.041380031302106</v>
       </c>
       <c r="J17">
-        <v>1.026754734640554</v>
+        <v>1.040891655518639</v>
       </c>
       <c r="K17">
-        <v>1.035249605968924</v>
+        <v>1.047753405904379</v>
       </c>
       <c r="L17">
-        <v>1.020642479391082</v>
+        <v>1.037282885196406</v>
       </c>
       <c r="M17">
-        <v>1.033311914140528</v>
+        <v>1.05580960475117</v>
       </c>
       <c r="N17">
-        <v>1.028212844134158</v>
+        <v>1.042369841061417</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.000348507229462</v>
+        <v>1.034908454267054</v>
       </c>
       <c r="D18">
-        <v>1.022485389584093</v>
+        <v>1.044590344714295</v>
       </c>
       <c r="E18">
-        <v>1.007605149536273</v>
+        <v>1.034085105278674</v>
       </c>
       <c r="F18">
-        <v>1.020737029830723</v>
+        <v>1.052726382245362</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047528885364009</v>
+        <v>1.041443202798562</v>
       </c>
       <c r="J18">
-        <v>1.027398354843425</v>
+        <v>1.041018389752292</v>
       </c>
       <c r="K18">
-        <v>1.035926964092917</v>
+        <v>1.047885004343514</v>
       </c>
       <c r="L18">
-        <v>1.02129388686992</v>
+        <v>1.037415638275628</v>
       </c>
       <c r="M18">
-        <v>1.034207164529258</v>
+        <v>1.055993798992687</v>
       </c>
       <c r="N18">
-        <v>1.028857378351541</v>
+        <v>1.042496755272219</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.000715389942079</v>
+        <v>1.034979090321098</v>
       </c>
       <c r="D19">
-        <v>1.022782751761801</v>
+        <v>1.04464958104824</v>
       </c>
       <c r="E19">
-        <v>1.007895150392278</v>
+        <v>1.034144913784001</v>
       </c>
       <c r="F19">
-        <v>1.021109884685961</v>
+        <v>1.052803495341405</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047668316066549</v>
+        <v>1.04146471996684</v>
       </c>
       <c r="J19">
-        <v>1.027616928570027</v>
+        <v>1.04106159853196</v>
       </c>
       <c r="K19">
-        <v>1.036156982144117</v>
+        <v>1.047929869339197</v>
       </c>
       <c r="L19">
-        <v>1.021515160875609</v>
+        <v>1.037460905162487</v>
       </c>
       <c r="M19">
-        <v>1.034511273355738</v>
+        <v>1.05605660928644</v>
       </c>
       <c r="N19">
-        <v>1.029076262477905</v>
+        <v>1.04254002541331</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9990690684394251</v>
+        <v>1.034663222524968</v>
       </c>
       <c r="D20">
-        <v>1.021448658660095</v>
+        <v>1.044384688788395</v>
       </c>
       <c r="E20">
-        <v>1.006594379085056</v>
+        <v>1.03387749476733</v>
       </c>
       <c r="F20">
-        <v>1.019437222632162</v>
+        <v>1.052458695257657</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047041884254052</v>
+        <v>1.041368400619816</v>
       </c>
       <c r="J20">
-        <v>1.026635923163369</v>
+        <v>1.040868341666124</v>
       </c>
       <c r="K20">
-        <v>1.035124560313972</v>
+        <v>1.047729196201746</v>
       </c>
       <c r="L20">
-        <v>1.020522256967879</v>
+        <v>1.037258466993509</v>
       </c>
       <c r="M20">
-        <v>1.033146690714845</v>
+        <v>1.055775725900331</v>
       </c>
       <c r="N20">
-        <v>1.028093863931048</v>
+        <v>1.042346494100557</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9936165651978508</v>
+        <v>1.03363689380056</v>
       </c>
       <c r="D21">
-        <v>1.01703523369548</v>
+        <v>1.043523970287704</v>
       </c>
       <c r="E21">
-        <v>1.002296455934701</v>
+        <v>1.033009125894449</v>
       </c>
       <c r="F21">
-        <v>1.01390576692875</v>
+        <v>1.051338912789256</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044953857429026</v>
+        <v>1.041053688060427</v>
       </c>
       <c r="J21">
-        <v>1.023383621071464</v>
+        <v>1.040239749626995</v>
       </c>
       <c r="K21">
-        <v>1.031700899251418</v>
+        <v>1.047076330404817</v>
       </c>
       <c r="L21">
-        <v>1.017234451476147</v>
+        <v>1.036600430542166</v>
       </c>
       <c r="M21">
-        <v>1.028628394037846</v>
+        <v>1.054862885562265</v>
       </c>
       <c r="N21">
-        <v>1.024836943197127</v>
+        <v>1.041717009388633</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9901078275257524</v>
+        <v>1.032992056079233</v>
       </c>
       <c r="D22">
-        <v>1.014199325231358</v>
+        <v>1.042983170858987</v>
       </c>
       <c r="E22">
-        <v>0.9995388452698694</v>
+        <v>1.032463949329052</v>
       </c>
       <c r="F22">
-        <v>1.010352791323859</v>
+        <v>1.050635784226753</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043600161068689</v>
+        <v>1.040854616027657</v>
       </c>
       <c r="J22">
-        <v>1.021288422899785</v>
+        <v>1.039844307242213</v>
       </c>
       <c r="K22">
-        <v>1.029494642989451</v>
+        <v>1.04666550170889</v>
       </c>
       <c r="L22">
-        <v>1.015119443264336</v>
+        <v>1.036186786196464</v>
       </c>
       <c r="M22">
-        <v>1.025721909927334</v>
+        <v>1.054289212030555</v>
       </c>
       <c r="N22">
-        <v>1.022738769603722</v>
+        <v>1.041321005430305</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.991975761473043</v>
+        <v>1.033333853208861</v>
       </c>
       <c r="D23">
-        <v>1.015708653651733</v>
+        <v>1.043269823504273</v>
       </c>
       <c r="E23">
-        <v>1.00100611620505</v>
+        <v>1.032752881314253</v>
       </c>
       <c r="F23">
-        <v>1.012243645575987</v>
+        <v>1.051008438064148</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044321751919447</v>
+        <v>1.040960261411427</v>
       </c>
       <c r="J23">
-        <v>1.022404039175036</v>
+        <v>1.040053959433985</v>
       </c>
       <c r="K23">
-        <v>1.030669454373687</v>
+        <v>1.046883322250554</v>
       </c>
       <c r="L23">
-        <v>1.016245318009915</v>
+        <v>1.036406058085588</v>
       </c>
       <c r="M23">
-        <v>1.027269107211595</v>
+        <v>1.054593301689559</v>
       </c>
       <c r="N23">
-        <v>1.023855970182047</v>
+        <v>1.041530955352238</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9991591697911121</v>
+        <v>1.034680436716942</v>
       </c>
       <c r="D24">
-        <v>1.021521654249579</v>
+        <v>1.044399124997465</v>
       </c>
       <c r="E24">
-        <v>1.006665531874063</v>
+        <v>1.03389206657006</v>
       </c>
       <c r="F24">
-        <v>1.019528735151121</v>
+        <v>1.052477484116592</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047076218404278</v>
+        <v>1.041373656437377</v>
       </c>
       <c r="J24">
-        <v>1.026689625247017</v>
+        <v>1.040878876270792</v>
       </c>
       <c r="K24">
-        <v>1.035181080445812</v>
+        <v>1.047740135645345</v>
       </c>
       <c r="L24">
-        <v>1.02057659577068</v>
+        <v>1.037269500500219</v>
       </c>
       <c r="M24">
-        <v>1.033221369244027</v>
+        <v>1.055791034206442</v>
       </c>
       <c r="N24">
-        <v>1.028147642277814</v>
+        <v>1.042357043665573</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.007168332420987</v>
+        <v>1.036245023372289</v>
       </c>
       <c r="D25">
-        <v>1.028018387398551</v>
+        <v>1.045711176702579</v>
       </c>
       <c r="E25">
-        <v>1.01300760755696</v>
+        <v>1.035217470653604</v>
       </c>
       <c r="F25">
-        <v>1.027677656239893</v>
+        <v>1.05418620802282</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050103825733986</v>
+        <v>1.041848135104598</v>
       </c>
       <c r="J25">
-        <v>1.031456838589827</v>
+        <v>1.04183515059427</v>
       </c>
       <c r="K25">
-        <v>1.040196784361294</v>
+        <v>1.048732880313363</v>
       </c>
       <c r="L25">
-        <v>1.02540729807649</v>
+        <v>1.038271831787438</v>
       </c>
       <c r="M25">
-        <v>1.039860985466521</v>
+        <v>1.057182054070627</v>
       </c>
       <c r="N25">
-        <v>1.032921625610377</v>
+        <v>1.043314676008276</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_226/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_226/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037494470852308</v>
+        <v>1.01331672851266</v>
       </c>
       <c r="D2">
-        <v>1.046758875721007</v>
+        <v>1.033016180631819</v>
       </c>
       <c r="E2">
-        <v>1.036277335339771</v>
+        <v>1.017899912737656</v>
       </c>
       <c r="F2">
-        <v>1.055552244180352</v>
+        <v>1.033953363415798</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042222328563286</v>
+        <v>1.052391673149512</v>
       </c>
       <c r="J2">
-        <v>1.0425970358803</v>
+        <v>1.035106305149067</v>
       </c>
       <c r="K2">
-        <v>1.049523413466975</v>
+        <v>1.044033940004522</v>
       </c>
       <c r="L2">
-        <v>1.039071536915578</v>
+        <v>1.029115381078252</v>
       </c>
       <c r="M2">
-        <v>1.058292388311089</v>
+        <v>1.044959103094537</v>
       </c>
       <c r="N2">
-        <v>1.044077643258801</v>
+        <v>1.036576274830731</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038402555501242</v>
+        <v>1.017652742245729</v>
       </c>
       <c r="D3">
-        <v>1.047520277088291</v>
+        <v>1.036545900529313</v>
       </c>
       <c r="E3">
-        <v>1.037048448028472</v>
+        <v>1.0213628922116</v>
       </c>
       <c r="F3">
-        <v>1.056545920864358</v>
+        <v>1.038390258403266</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042491551297867</v>
+        <v>1.053983348570068</v>
       </c>
       <c r="J3">
-        <v>1.043149731014273</v>
+        <v>1.037673476174861</v>
       </c>
       <c r="K3">
-        <v>1.050096652754297</v>
+        <v>1.046731585813308</v>
       </c>
       <c r="L3">
-        <v>1.039652319972062</v>
+        <v>1.031729537126534</v>
       </c>
       <c r="M3">
-        <v>1.059099069303024</v>
+        <v>1.048554407439525</v>
       </c>
       <c r="N3">
-        <v>1.04463112328326</v>
+        <v>1.039147091533841</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038990546374506</v>
+        <v>1.020402349482491</v>
       </c>
       <c r="D4">
-        <v>1.048013261285008</v>
+        <v>1.038786312692348</v>
       </c>
       <c r="E4">
-        <v>1.037548121978535</v>
+        <v>1.023564525083995</v>
       </c>
       <c r="F4">
-        <v>1.057189728289448</v>
+        <v>1.041208828935217</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042664607748462</v>
+        <v>1.054982363405554</v>
       </c>
       <c r="J4">
-        <v>1.0435071245227</v>
+        <v>1.039298177861544</v>
       </c>
       <c r="K4">
-        <v>1.050467220535403</v>
+        <v>1.048438116240674</v>
       </c>
       <c r="L4">
-        <v>1.040028177928662</v>
+        <v>1.033386628429997</v>
       </c>
       <c r="M4">
-        <v>1.059621261534691</v>
+        <v>1.050834093637379</v>
       </c>
       <c r="N4">
-        <v>1.044989024331462</v>
+        <v>1.040774100483274</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039237832267341</v>
+        <v>1.021545314945635</v>
       </c>
       <c r="D5">
-        <v>1.048220583886963</v>
+        <v>1.039718079225904</v>
       </c>
       <c r="E5">
-        <v>1.037758354068949</v>
+        <v>1.024481022413775</v>
       </c>
       <c r="F5">
-        <v>1.057460582842157</v>
+        <v>1.042381638831707</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042737085070832</v>
+        <v>1.055395125759495</v>
       </c>
       <c r="J5">
-        <v>1.043657315004896</v>
+        <v>1.039972735857626</v>
       </c>
       <c r="K5">
-        <v>1.050622920889353</v>
+        <v>1.049146465679037</v>
       </c>
       <c r="L5">
-        <v>1.04018620012095</v>
+        <v>1.034075270490384</v>
       </c>
       <c r="M5">
-        <v>1.059840841598431</v>
+        <v>1.051781640906175</v>
       </c>
       <c r="N5">
-        <v>1.045139428101371</v>
+        <v>1.041449616429084</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039279358168711</v>
+        <v>1.021736476225214</v>
       </c>
       <c r="D6">
-        <v>1.048255398449506</v>
+        <v>1.039873943633264</v>
       </c>
       <c r="E6">
-        <v>1.037793662840818</v>
+        <v>1.024634383070267</v>
       </c>
       <c r="F6">
-        <v>1.057506072080936</v>
+        <v>1.042577860257674</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042749238152383</v>
+        <v>1.055464011726412</v>
       </c>
       <c r="J6">
-        <v>1.043682529233357</v>
+        <v>1.040085507808814</v>
       </c>
       <c r="K6">
-        <v>1.050649058571008</v>
+        <v>1.049264875979248</v>
       </c>
       <c r="L6">
-        <v>1.040212733386432</v>
+        <v>1.03419043440047</v>
       </c>
       <c r="M6">
-        <v>1.059877712981264</v>
+        <v>1.051940112922594</v>
       </c>
       <c r="N6">
-        <v>1.045164678136928</v>
+        <v>1.041562548529377</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03899385025062</v>
+        <v>1.020417672214156</v>
       </c>
       <c r="D7">
-        <v>1.048016031258371</v>
+        <v>1.038798802280684</v>
       </c>
       <c r="E7">
-        <v>1.037550930447093</v>
+        <v>1.02357680661043</v>
       </c>
       <c r="F7">
-        <v>1.05719334668522</v>
+        <v>1.041224547139331</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042665577277716</v>
+        <v>1.054987906913087</v>
       </c>
       <c r="J7">
-        <v>1.043509131603391</v>
+        <v>1.0393072242774</v>
       </c>
       <c r="K7">
-        <v>1.050469301351699</v>
+        <v>1.048447616557714</v>
       </c>
       <c r="L7">
-        <v>1.040030289385039</v>
+        <v>1.033395861211523</v>
       </c>
       <c r="M7">
-        <v>1.059624195377501</v>
+        <v>1.050846796922354</v>
       </c>
       <c r="N7">
-        <v>1.044991034262438</v>
+        <v>1.040783159746078</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03780127896366</v>
+        <v>1.014793999477576</v>
       </c>
       <c r="D8">
-        <v>1.047016130580299</v>
+        <v>1.034218283732758</v>
       </c>
       <c r="E8">
-        <v>1.036537788114472</v>
+        <v>1.019078535084519</v>
       </c>
       <c r="F8">
-        <v>1.055887888773962</v>
+        <v>1.035463945513318</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042313551113007</v>
+        <v>1.052936094886406</v>
       </c>
       <c r="J8">
-        <v>1.042783870323763</v>
+        <v>1.035981592925363</v>
       </c>
       <c r="K8">
-        <v>1.049717215539731</v>
+        <v>1.044953867756616</v>
       </c>
       <c r="L8">
-        <v>1.039267803766078</v>
+        <v>1.030006131057427</v>
       </c>
       <c r="M8">
-        <v>1.058564964555397</v>
+        <v>1.046184042685872</v>
       </c>
       <c r="N8">
-        <v>1.044264743028604</v>
+        <v>1.037452805616066</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.035702922634822</v>
+        <v>1.004433130433315</v>
       </c>
       <c r="D9">
-        <v>1.045256585788239</v>
+        <v>1.025797916935633</v>
       </c>
       <c r="E9">
-        <v>1.034758020700707</v>
+        <v>1.010837862884787</v>
       </c>
       <c r="F9">
-        <v>1.053593936418218</v>
+        <v>1.024891494522195</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041684465945159</v>
+        <v>1.049075505909911</v>
       </c>
       <c r="J9">
-        <v>1.041504093079754</v>
+        <v>1.029830308834564</v>
       </c>
       <c r="K9">
-        <v>1.048389260151612</v>
+        <v>1.038485861469269</v>
       </c>
       <c r="L9">
-        <v>1.037924655304531</v>
+        <v>1.023757516936579</v>
       </c>
       <c r="M9">
-        <v>1.056700168824138</v>
+        <v>1.037593232764098</v>
       </c>
       <c r="N9">
-        <v>1.042983148354117</v>
+        <v>1.031292785996296</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.034306170526931</v>
+        <v>0.9971902485239013</v>
       </c>
       <c r="D10">
-        <v>1.044085254813632</v>
+        <v>1.019927008434307</v>
       </c>
       <c r="E10">
-        <v>1.033575302830212</v>
+        <v>1.005111651622224</v>
       </c>
       <c r="F10">
-        <v>1.052069035882431</v>
+        <v>1.017529772218344</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041259215647181</v>
+        <v>1.046324646615331</v>
       </c>
       <c r="J10">
-        <v>1.040649772000852</v>
+        <v>1.025515790025022</v>
       </c>
       <c r="K10">
-        <v>1.047502212285586</v>
+        <v>1.033945560127755</v>
       </c>
       <c r="L10">
-        <v>1.037029586989564</v>
+        <v>1.019389222905478</v>
       </c>
       <c r="M10">
-        <v>1.055458187297249</v>
+        <v>1.031589573675279</v>
       </c>
       <c r="N10">
-        <v>1.042127614041291</v>
+        <v>1.026972140075163</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.033701884887305</v>
+        <v>0.9939666006261304</v>
       </c>
       <c r="D11">
-        <v>1.043578475158091</v>
+        <v>1.017318328478695</v>
       </c>
       <c r="E11">
-        <v>1.033064090142856</v>
+        <v>1.002571906157935</v>
       </c>
       <c r="F11">
-        <v>1.051409796887199</v>
+        <v>1.01426049459642</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041073695109829</v>
+        <v>1.045088488531714</v>
       </c>
       <c r="J11">
-        <v>1.040279583769193</v>
+        <v>1.023592548069149</v>
       </c>
       <c r="K11">
-        <v>1.047117709553464</v>
+        <v>1.031920873379758</v>
       </c>
       <c r="L11">
-        <v>1.036642111837443</v>
+        <v>1.017445482538297</v>
       </c>
       <c r="M11">
-        <v>1.054920698329651</v>
+        <v>1.028918398215104</v>
       </c>
       <c r="N11">
-        <v>1.041756900099882</v>
+        <v>1.025046166895114</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.033477505003721</v>
+        <v>0.9927553426405776</v>
       </c>
       <c r="D12">
-        <v>1.043390298200932</v>
+        <v>1.016338850301891</v>
       </c>
       <c r="E12">
-        <v>1.032874341386426</v>
+        <v>1.001619011290755</v>
       </c>
       <c r="F12">
-        <v>1.051165085617068</v>
+        <v>1.013033216334973</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041004577107037</v>
+        <v>1.044622286131594</v>
       </c>
       <c r="J12">
-        <v>1.040142040993942</v>
+        <v>1.0228695058817</v>
       </c>
       <c r="K12">
-        <v>1.046974828222714</v>
+        <v>1.031159578376756</v>
       </c>
       <c r="L12">
-        <v>1.036498201658776</v>
+        <v>1.016715259193265</v>
       </c>
       <c r="M12">
-        <v>1.054721096774097</v>
+        <v>1.02791490890996</v>
       </c>
       <c r="N12">
-        <v>1.041619161998113</v>
+        <v>1.024322097904824</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.033525631672601</v>
+        <v>0.9930158004438915</v>
       </c>
       <c r="D13">
-        <v>1.043430659899187</v>
+        <v>1.016549435187735</v>
       </c>
       <c r="E13">
-        <v>1.032915036853773</v>
+        <v>1.001823849128867</v>
       </c>
       <c r="F13">
-        <v>1.051217569779964</v>
+        <v>1.013297067616814</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041019412530077</v>
+        <v>1.044722611241852</v>
       </c>
       <c r="J13">
-        <v>1.040171546108375</v>
+        <v>1.023024999646863</v>
       </c>
       <c r="K13">
-        <v>1.047005479447962</v>
+        <v>1.031323303687643</v>
       </c>
       <c r="L13">
-        <v>1.036529070169799</v>
+        <v>1.016872273511733</v>
       </c>
       <c r="M13">
-        <v>1.054763909895684</v>
+        <v>1.028130681101818</v>
       </c>
       <c r="N13">
-        <v>1.041648709013193</v>
+        <v>1.024477812488969</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.033683335964701</v>
+        <v>0.9938667645459489</v>
       </c>
       <c r="D14">
-        <v>1.043562919087673</v>
+        <v>1.017237581687316</v>
       </c>
       <c r="E14">
-        <v>1.033048402620176</v>
+        <v>1.002493336592292</v>
       </c>
       <c r="F14">
-        <v>1.05138956571743</v>
+        <v>1.014159315008335</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041067986022062</v>
+        <v>1.045050097328618</v>
       </c>
       <c r="J14">
-        <v>1.040268215218202</v>
+        <v>1.023532960321416</v>
       </c>
       <c r="K14">
-        <v>1.047105900154318</v>
+        <v>1.03185813541826</v>
       </c>
       <c r="L14">
-        <v>1.036630215858231</v>
+        <v>1.017385292277111</v>
       </c>
       <c r="M14">
-        <v>1.054904198262424</v>
+        <v>1.028835683193468</v>
       </c>
       <c r="N14">
-        <v>1.041745515404244</v>
+        <v>1.024986494525944</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.033780513243609</v>
+        <v>0.9943892138946839</v>
       </c>
       <c r="D15">
-        <v>1.043644416801934</v>
+        <v>1.017660164765245</v>
       </c>
       <c r="E15">
-        <v>1.03313059205094</v>
+        <v>1.00290455388841</v>
       </c>
       <c r="F15">
-        <v>1.051495559256401</v>
+        <v>1.014688841081272</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041097886286153</v>
+        <v>1.045250931145882</v>
       </c>
       <c r="J15">
-        <v>1.040327771188444</v>
+        <v>1.023844771192514</v>
       </c>
       <c r="K15">
-        <v>1.047167764758142</v>
+        <v>1.032186426092978</v>
       </c>
       <c r="L15">
-        <v>1.036692537119069</v>
+        <v>1.017700277408997</v>
       </c>
       <c r="M15">
-        <v>1.054990640655043</v>
+        <v>1.029268544497828</v>
       </c>
       <c r="N15">
-        <v>1.041805155950795</v>
+        <v>1.025298748204244</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.034346285957526</v>
+        <v>0.9974022893212375</v>
       </c>
       <c r="D16">
-        <v>1.04411889695317</v>
+        <v>1.020098693976189</v>
       </c>
       <c r="E16">
-        <v>1.033609249664844</v>
+        <v>1.005278897403431</v>
       </c>
       <c r="F16">
-        <v>1.052112809695006</v>
+        <v>1.017744968526744</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041271498916002</v>
+        <v>1.046405714841007</v>
       </c>
       <c r="J16">
-        <v>1.040674334741686</v>
+        <v>1.025642236594437</v>
       </c>
       <c r="K16">
-        <v>1.047527722012559</v>
+        <v>1.034078660143901</v>
       </c>
       <c r="L16">
-        <v>1.037055304535131</v>
+        <v>1.019517089783433</v>
       </c>
       <c r="M16">
-        <v>1.055493865027965</v>
+        <v>1.031765297503749</v>
       </c>
       <c r="N16">
-        <v>1.042152211664034</v>
+        <v>1.02709876621321</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.034701319417554</v>
+        <v>0.999268413586944</v>
       </c>
       <c r="D17">
-        <v>1.044416637687329</v>
+        <v>1.021610160868514</v>
       </c>
       <c r="E17">
-        <v>1.033909744075416</v>
+        <v>1.006751807131806</v>
       </c>
       <c r="F17">
-        <v>1.052500277382858</v>
+        <v>1.019639694630745</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041380031302106</v>
+        <v>1.047117839281925</v>
       </c>
       <c r="J17">
-        <v>1.040891655518639</v>
+        <v>1.026754734640555</v>
       </c>
       <c r="K17">
-        <v>1.047753405904379</v>
+        <v>1.035249605968925</v>
       </c>
       <c r="L17">
-        <v>1.037282885196406</v>
+        <v>1.020642479391083</v>
       </c>
       <c r="M17">
-        <v>1.05580960475117</v>
+        <v>1.033311914140529</v>
       </c>
       <c r="N17">
-        <v>1.042369841061417</v>
+        <v>1.02821284413416</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.034908454267054</v>
+        <v>1.000348507229463</v>
       </c>
       <c r="D18">
-        <v>1.044590344714295</v>
+        <v>1.022485389584094</v>
       </c>
       <c r="E18">
-        <v>1.034085105278674</v>
+        <v>1.007605149536273</v>
       </c>
       <c r="F18">
-        <v>1.052726382245362</v>
+        <v>1.020737029830724</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041443202798562</v>
+        <v>1.047528885364009</v>
       </c>
       <c r="J18">
-        <v>1.041018389752292</v>
+        <v>1.027398354843426</v>
       </c>
       <c r="K18">
-        <v>1.047885004343514</v>
+        <v>1.035926964092918</v>
       </c>
       <c r="L18">
-        <v>1.037415638275628</v>
+        <v>1.021293886869921</v>
       </c>
       <c r="M18">
-        <v>1.055993798992687</v>
+        <v>1.034207164529259</v>
       </c>
       <c r="N18">
-        <v>1.042496755272219</v>
+        <v>1.028857378351542</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.034979090321098</v>
+        <v>1.000715389942078</v>
       </c>
       <c r="D19">
-        <v>1.04464958104824</v>
+        <v>1.0227827517618</v>
       </c>
       <c r="E19">
-        <v>1.034144913784001</v>
+        <v>1.007895150392277</v>
       </c>
       <c r="F19">
-        <v>1.052803495341405</v>
+        <v>1.021109884685961</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04146471996684</v>
+        <v>1.047668316066548</v>
       </c>
       <c r="J19">
-        <v>1.04106159853196</v>
+        <v>1.027616928570027</v>
       </c>
       <c r="K19">
-        <v>1.047929869339197</v>
+        <v>1.036156982144117</v>
       </c>
       <c r="L19">
-        <v>1.037460905162487</v>
+        <v>1.021515160875608</v>
       </c>
       <c r="M19">
-        <v>1.05605660928644</v>
+        <v>1.034511273355737</v>
       </c>
       <c r="N19">
-        <v>1.04254002541331</v>
+        <v>1.029076262477905</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.034663222524968</v>
+        <v>0.9990690684394242</v>
       </c>
       <c r="D20">
-        <v>1.044384688788395</v>
+        <v>1.021448658660095</v>
       </c>
       <c r="E20">
-        <v>1.03387749476733</v>
+        <v>1.006594379085054</v>
       </c>
       <c r="F20">
-        <v>1.052458695257657</v>
+        <v>1.019437222632161</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041368400619816</v>
+        <v>1.047041884254051</v>
       </c>
       <c r="J20">
-        <v>1.040868341666124</v>
+        <v>1.026635923163369</v>
       </c>
       <c r="K20">
-        <v>1.047729196201746</v>
+        <v>1.035124560313972</v>
       </c>
       <c r="L20">
-        <v>1.037258466993509</v>
+        <v>1.020522256967878</v>
       </c>
       <c r="M20">
-        <v>1.055775725900331</v>
+        <v>1.033146690714844</v>
       </c>
       <c r="N20">
-        <v>1.042346494100557</v>
+        <v>1.028093863931047</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.03363689380056</v>
+        <v>0.993616565197852</v>
       </c>
       <c r="D21">
-        <v>1.043523970287704</v>
+        <v>1.017035233695481</v>
       </c>
       <c r="E21">
-        <v>1.033009125894449</v>
+        <v>1.002296455934702</v>
       </c>
       <c r="F21">
-        <v>1.051338912789256</v>
+        <v>1.013905766928752</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041053688060427</v>
+        <v>1.044953857429027</v>
       </c>
       <c r="J21">
-        <v>1.040239749626995</v>
+        <v>1.023383621071465</v>
       </c>
       <c r="K21">
-        <v>1.047076330404817</v>
+        <v>1.031700899251419</v>
       </c>
       <c r="L21">
-        <v>1.036600430542166</v>
+        <v>1.017234451476148</v>
       </c>
       <c r="M21">
-        <v>1.054862885562265</v>
+        <v>1.028628394037848</v>
       </c>
       <c r="N21">
-        <v>1.041717009388633</v>
+        <v>1.024836943197128</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.032992056079233</v>
+        <v>0.9901078275257519</v>
       </c>
       <c r="D22">
-        <v>1.042983170858987</v>
+        <v>1.014199325231357</v>
       </c>
       <c r="E22">
-        <v>1.032463949329052</v>
+        <v>0.9995388452698688</v>
       </c>
       <c r="F22">
-        <v>1.050635784226753</v>
+        <v>1.010352791323858</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040854616027657</v>
+        <v>1.043600161068689</v>
       </c>
       <c r="J22">
-        <v>1.039844307242213</v>
+        <v>1.021288422899784</v>
       </c>
       <c r="K22">
-        <v>1.04666550170889</v>
+        <v>1.02949464298945</v>
       </c>
       <c r="L22">
-        <v>1.036186786196464</v>
+        <v>1.015119443264335</v>
       </c>
       <c r="M22">
-        <v>1.054289212030555</v>
+        <v>1.025721909927333</v>
       </c>
       <c r="N22">
-        <v>1.041321005430305</v>
+        <v>1.022738769603721</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.033333853208861</v>
+        <v>0.9919757614730427</v>
       </c>
       <c r="D23">
-        <v>1.043269823504273</v>
+        <v>1.015708653651733</v>
       </c>
       <c r="E23">
-        <v>1.032752881314253</v>
+        <v>1.00100611620505</v>
       </c>
       <c r="F23">
-        <v>1.051008438064148</v>
+        <v>1.012243645575987</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040960261411427</v>
+        <v>1.044321751919447</v>
       </c>
       <c r="J23">
-        <v>1.040053959433985</v>
+        <v>1.022404039175036</v>
       </c>
       <c r="K23">
-        <v>1.046883322250554</v>
+        <v>1.030669454373687</v>
       </c>
       <c r="L23">
-        <v>1.036406058085588</v>
+        <v>1.016245318009914</v>
       </c>
       <c r="M23">
-        <v>1.054593301689559</v>
+        <v>1.027269107211595</v>
       </c>
       <c r="N23">
-        <v>1.041530955352238</v>
+        <v>1.023855970182047</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.034680436716942</v>
+        <v>0.9991591697911123</v>
       </c>
       <c r="D24">
-        <v>1.044399124997465</v>
+        <v>1.02152165424958</v>
       </c>
       <c r="E24">
-        <v>1.03389206657006</v>
+        <v>1.006665531874063</v>
       </c>
       <c r="F24">
-        <v>1.052477484116592</v>
+        <v>1.019528735151121</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041373656437377</v>
+        <v>1.047076218404278</v>
       </c>
       <c r="J24">
-        <v>1.040878876270792</v>
+        <v>1.026689625247017</v>
       </c>
       <c r="K24">
-        <v>1.047740135645345</v>
+        <v>1.035181080445812</v>
       </c>
       <c r="L24">
-        <v>1.037269500500219</v>
+        <v>1.02057659577068</v>
       </c>
       <c r="M24">
-        <v>1.055791034206442</v>
+        <v>1.033221369244027</v>
       </c>
       <c r="N24">
-        <v>1.042357043665573</v>
+        <v>1.028147642277814</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.036245023372289</v>
+        <v>1.007168332420987</v>
       </c>
       <c r="D25">
-        <v>1.045711176702579</v>
+        <v>1.02801838739855</v>
       </c>
       <c r="E25">
-        <v>1.035217470653604</v>
+        <v>1.01300760755696</v>
       </c>
       <c r="F25">
-        <v>1.05418620802282</v>
+        <v>1.027677656239893</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041848135104598</v>
+        <v>1.050103825733985</v>
       </c>
       <c r="J25">
-        <v>1.04183515059427</v>
+        <v>1.031456838589827</v>
       </c>
       <c r="K25">
-        <v>1.048732880313363</v>
+        <v>1.040196784361294</v>
       </c>
       <c r="L25">
-        <v>1.038271831787438</v>
+        <v>1.025407298076489</v>
       </c>
       <c r="M25">
-        <v>1.057182054070627</v>
+        <v>1.039860985466521</v>
       </c>
       <c r="N25">
-        <v>1.043314676008276</v>
+        <v>1.032921625610377</v>
       </c>
     </row>
   </sheetData>
